--- a/business-doc/报价单-模拟报价分析说明-2.20.xlsx
+++ b/business-doc/报价单-模拟报价分析说明-2.20.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/IdeaProjects/FMIS/business-doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/IdeaProjects/fmis-process/business-doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="819"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="819"/>
   </bookViews>
   <sheets>
     <sheet name="报价单模板" sheetId="7" r:id="rId1"/>
@@ -1785,8 +1785,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -2170,7 +2170,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2179,7 +2179,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2261,6 +2261,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2279,80 +2348,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2360,8 +2360,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3132,7 +3132,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="114300"/>
+          <a:off x="339725" y="114300"/>
           <a:ext cx="571500" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5697,7 +5697,7 @@
   <dimension ref="A1:AP28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5730,26 +5730,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
       <c r="U1" s="25" t="str">
         <f>IF(O4=0,"",O4)</f>
         <v/>
@@ -5803,24 +5803,24 @@
       </c>
     </row>
     <row r="2" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
       <c r="AB2" s="43"/>
       <c r="AC2" s="44"/>
       <c r="AD2" s="44"/>
@@ -5836,31 +5836,31 @@
       <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="55" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="57" t="s">
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
       <c r="Y3" s="46"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -5868,24 +5868,24 @@
         <v>3</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="59" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="60"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
       <c r="S4" s="28"/>
       <c r="T4" s="29"/>
       <c r="Y4" s="46"/>
@@ -5907,24 +5907,24 @@
         <v>6</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="63" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="64"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
       <c r="S5" s="30"/>
       <c r="T5" s="31"/>
       <c r="U5" s="32" t="s">
@@ -5941,26 +5941,26 @@
         <v>10</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63" t="s">
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="64"/>
-      <c r="O6" s="66" t="s">
+      <c r="N6" s="68"/>
+      <c r="O6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
       <c r="S6" s="35"/>
       <c r="T6" s="29"/>
     </row>
@@ -5969,26 +5969,26 @@
         <v>13</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="63" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="67" t="s">
+      <c r="N7" s="68"/>
+      <c r="O7" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
       <c r="S7" s="35"/>
       <c r="T7" s="29"/>
       <c r="U7" s="24" t="s">
@@ -6057,22 +6057,22 @@
         <v>23</v>
       </c>
       <c r="B9" s="51"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="76"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="63"/>
       <c r="S9" s="29" t="s">
         <v>24</v>
       </c>
@@ -6946,24 +6946,24 @@
       <c r="AA18" s="29"/>
     </row>
     <row r="19" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
       <c r="S19" s="54"/>
       <c r="T19" s="54"/>
       <c r="U19" s="29"/>
@@ -6972,23 +6972,23 @@
       <c r="AP19" s="24"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
       <c r="P20" s="52"/>
       <c r="Q20" s="52"/>
       <c r="R20" s="52"/>
@@ -6996,22 +6996,22 @@
       <c r="T20" s="29"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
       <c r="O21" s="53"/>
       <c r="P21" s="53"/>
       <c r="Q21" s="53"/>
@@ -7020,22 +7020,22 @@
       <c r="T21" s="29"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
       <c r="O22" s="53"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
@@ -7044,22 +7044,22 @@
       <c r="T22" s="29"/>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
       <c r="O23" s="53"/>
       <c r="P23" s="53"/>
       <c r="Q23" s="53"/>
@@ -7068,23 +7068,23 @@
       <c r="T23" s="29"/>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
       <c r="P24" s="53"/>
       <c r="Q24" s="53"/>
       <c r="R24" s="53"/>
@@ -7104,12 +7104,12 @@
       <c r="J25" s="53"/>
       <c r="K25" s="53"/>
       <c r="L25" s="53"/>
-      <c r="O25" s="79" t="s">
+      <c r="O25" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
       <c r="S25" s="29"/>
       <c r="T25" s="29"/>
     </row>
@@ -7126,12 +7126,12 @@
       <c r="J26" s="53"/>
       <c r="K26" s="53"/>
       <c r="L26" s="53"/>
-      <c r="O26" s="79" t="s">
+      <c r="O26" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
       <c r="S26" s="29"/>
       <c r="T26" s="29"/>
     </row>
@@ -7148,39 +7148,53 @@
       <c r="J27" s="53"/>
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
-      <c r="O27" s="79" t="s">
+      <c r="O27" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
       <c r="S27" s="29"/>
       <c r="T27" s="29"/>
     </row>
     <row r="28" spans="1:42" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:R6"/>
     <mergeCell ref="A28:R28"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C1:R2"/>
@@ -7197,20 +7211,6 @@
     <mergeCell ref="C7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="O7:R7"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="C3:R3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:R4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7243,26 +7243,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
       <c r="S1" s="24"/>
       <c r="T1" s="24"/>
       <c r="U1" s="25" t="str">
@@ -7319,24 +7319,24 @@
       </c>
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
       <c r="S2" s="24"/>
       <c r="T2" s="24"/>
       <c r="U2" s="24"/>
@@ -7361,31 +7361,31 @@
       <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:41" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="55" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="57" t="s">
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
       <c r="V3" s="24"/>
       <c r="W3" s="24"/>
       <c r="X3" s="24"/>
@@ -7410,25 +7410,25 @@
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="59" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="60"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
       <c r="S4" s="28"/>
       <c r="T4" s="29"/>
       <c r="U4" s="24"/>
@@ -7467,14 +7467,14 @@
       <c r="J5" s="86"/>
       <c r="K5" s="86"/>
       <c r="L5" s="86"/>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="64"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
       <c r="S5" s="30"/>
       <c r="T5" s="31"/>
       <c r="U5" s="32" t="s">
@@ -7519,16 +7519,16 @@
       <c r="J6" s="86"/>
       <c r="K6" s="86"/>
       <c r="L6" s="86"/>
-      <c r="M6" s="63" t="s">
+      <c r="M6" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="64"/>
-      <c r="O6" s="66" t="s">
+      <c r="N6" s="68"/>
+      <c r="O6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
       <c r="S6" s="35"/>
       <c r="T6" s="29"/>
       <c r="U6" s="24"/>
@@ -7567,16 +7567,16 @@
       <c r="J7" s="86"/>
       <c r="K7" s="86"/>
       <c r="L7" s="87"/>
-      <c r="M7" s="63" t="s">
+      <c r="M7" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="67" t="s">
+      <c r="N7" s="68"/>
+      <c r="O7" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
       <c r="S7" s="35"/>
       <c r="T7" s="29"/>
       <c r="U7" s="24" t="s">
@@ -7684,12 +7684,12 @@
       <c r="J9" s="70"/>
       <c r="K9" s="70"/>
       <c r="L9" s="70"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="76"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="63"/>
       <c r="S9" s="29" t="s">
         <v>24</v>
       </c>
@@ -8688,51 +8688,57 @@
       </c>
     </row>
     <row r="23" spans="1:41" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="88"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
     </row>
     <row r="24" spans="1:41" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:R4"/>
     <mergeCell ref="C9:R9"/>
     <mergeCell ref="A23:R23"/>
     <mergeCell ref="A24:R24"/>
@@ -8749,12 +8755,6 @@
     <mergeCell ref="O5:R5"/>
     <mergeCell ref="B6:L6"/>
     <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="C3:R3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:R4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8787,26 +8787,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
       <c r="S1" s="24"/>
       <c r="T1" s="24"/>
       <c r="U1" s="25" t="str">
@@ -8863,24 +8863,24 @@
       </c>
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
       <c r="S2" s="24"/>
       <c r="T2" s="24"/>
       <c r="U2" s="24"/>
@@ -8905,31 +8905,31 @@
       <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:41" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="55" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="57" t="s">
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
       <c r="V3" s="24"/>
       <c r="W3" s="24"/>
       <c r="X3" s="24"/>
@@ -8954,25 +8954,25 @@
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="59" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="60"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
       <c r="S4" s="28"/>
       <c r="T4" s="29"/>
       <c r="U4" s="24"/>
@@ -9011,14 +9011,14 @@
       <c r="J5" s="86"/>
       <c r="K5" s="86"/>
       <c r="L5" s="86"/>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="64"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
       <c r="S5" s="30"/>
       <c r="T5" s="31"/>
       <c r="U5" s="32" t="s">
@@ -9063,16 +9063,16 @@
       <c r="J6" s="86"/>
       <c r="K6" s="86"/>
       <c r="L6" s="86"/>
-      <c r="M6" s="63" t="s">
+      <c r="M6" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="64"/>
-      <c r="O6" s="66" t="s">
+      <c r="N6" s="68"/>
+      <c r="O6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
       <c r="S6" s="35"/>
       <c r="T6" s="29"/>
       <c r="U6" s="24"/>
@@ -9111,16 +9111,16 @@
       <c r="J7" s="86"/>
       <c r="K7" s="86"/>
       <c r="L7" s="87"/>
-      <c r="M7" s="63" t="s">
+      <c r="M7" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="67" t="s">
+      <c r="N7" s="68"/>
+      <c r="O7" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
       <c r="S7" s="35"/>
       <c r="T7" s="29"/>
       <c r="U7" s="24" t="s">
@@ -9228,12 +9228,12 @@
       <c r="J9" s="70"/>
       <c r="K9" s="70"/>
       <c r="L9" s="70"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="76"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="63"/>
       <c r="S9" s="29" t="s">
         <v>24</v>
       </c>
@@ -10228,71 +10228,78 @@
       </c>
     </row>
     <row r="23" spans="1:41" s="4" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="88"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
     </row>
     <row r="24" spans="1:41" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
     </row>
     <row r="25" spans="1:41" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="88"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:R4"/>
     <mergeCell ref="C9:R9"/>
     <mergeCell ref="A23:R23"/>
     <mergeCell ref="A24:R24"/>
@@ -10309,13 +10316,6 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:R5"/>
     <mergeCell ref="B6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="C3:R3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:R4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/business-doc/报价单-模拟报价分析说明-2.20.xlsx
+++ b/business-doc/报价单-模拟报价分析说明-2.20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="819"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="819"/>
   </bookViews>
   <sheets>
     <sheet name="报价单模板" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="111">
   <si>
     <r>
       <rPr>
@@ -1778,6 +1778,14 @@
   </si>
   <si>
     <t>2）如单独对某个单项产品（利润较高）进行价格调整，比如涉及外采的气动执行器，如果在确保其他薄利产品报价比例不变的情况下，单独降低这个产品的利润点，最终实现优惠价，详见Sheet3对比分析2。要单独对这个产品的阀门价溢价系数进行调整，如阀门价调到1.02，执行器调整到1.1，最终优惠价亦能实现38000元。但这里存在一个弊端，就是这种配套产品，怎么能够在系统里实现价格体系的合理设定，以实现利润最大化。（销售价格的分类，公司统一的销售底价，溢价比例，考虑一些特殊客户因素）</t>
+  </si>
+  <si>
+    <t>北京好利阀业集团有限公司</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beijing HAOLIFA Valve Group Co.,LTD</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1788,7 +1796,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1918,6 +1926,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2096,7 +2112,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2107,8 +2123,71 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2261,6 +2340,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2297,59 +2430,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2360,14 +2442,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="24">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="超链接 10" xfId="2"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5697,59 +5800,59 @@
   <dimension ref="A1:AP28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="O27" sqref="O27:R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" style="6" customWidth="1"/>
     <col min="4" max="5" width="6" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="6" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="6" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="8.1640625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" style="6" customWidth="1"/>
-    <col min="16" max="17" width="5.1640625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="4.5" style="24" customWidth="1"/>
-    <col min="20" max="20" width="5.1640625" style="24" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" style="24" customWidth="1"/>
-    <col min="22" max="22" width="8.5" style="24" customWidth="1"/>
-    <col min="23" max="25" width="6.6640625" style="24" customWidth="1"/>
-    <col min="26" max="27" width="5.33203125" style="24" customWidth="1"/>
-    <col min="28" max="28" width="8.83203125" style="24" customWidth="1"/>
-    <col min="29" max="40" width="7.1640625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="4.59765625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.19921875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="5.3984375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8.3984375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8.19921875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8.3984375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="5.59765625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="7.59765625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.19921875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="5.59765625" style="6" customWidth="1"/>
+    <col min="16" max="17" width="5.19921875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="15.3984375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="4.3984375" style="24" customWidth="1"/>
+    <col min="20" max="20" width="5.19921875" style="24" customWidth="1"/>
+    <col min="21" max="21" width="9.59765625" style="24" customWidth="1"/>
+    <col min="22" max="22" width="8.3984375" style="24" customWidth="1"/>
+    <col min="23" max="25" width="6.59765625" style="24" customWidth="1"/>
+    <col min="26" max="27" width="5.3984375" style="24" customWidth="1"/>
+    <col min="28" max="28" width="8.796875" style="24" customWidth="1"/>
+    <col min="29" max="40" width="7.19921875" style="24" customWidth="1"/>
     <col min="41" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
       <c r="U1" s="25" t="str">
         <f>IF(O4=0,"",O4)</f>
         <v/>
@@ -5803,24 +5906,24 @@
       </c>
     </row>
     <row r="2" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
       <c r="AB2" s="43"/>
       <c r="AC2" s="44"/>
       <c r="AD2" s="44"/>
@@ -5836,31 +5939,31 @@
       <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="80" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
       <c r="Y3" s="46"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -5868,24 +5971,24 @@
         <v>3</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="83"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
       <c r="S4" s="28"/>
       <c r="T4" s="29"/>
       <c r="Y4" s="46"/>
@@ -5907,24 +6010,24 @@
         <v>6</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="67" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="68"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
       <c r="S5" s="30"/>
       <c r="T5" s="31"/>
       <c r="U5" s="32" t="s">
@@ -5941,26 +6044,26 @@
         <v>10</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="67" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="68"/>
-      <c r="O6" s="77" t="s">
+      <c r="N6" s="69"/>
+      <c r="O6" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
       <c r="S6" s="35"/>
       <c r="T6" s="29"/>
     </row>
@@ -5969,26 +6072,26 @@
         <v>13</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="67" t="s">
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="68"/>
-      <c r="O7" s="69" t="s">
+      <c r="N7" s="69"/>
+      <c r="O7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
       <c r="S7" s="35"/>
       <c r="T7" s="29"/>
       <c r="U7" s="24" t="s">
@@ -6003,26 +6106,26 @@
         <v>17</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="73"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
       <c r="S8" s="36"/>
       <c r="T8" s="29"/>
       <c r="U8" s="37" t="str">
@@ -6057,22 +6160,22 @@
         <v>23</v>
       </c>
       <c r="B9" s="51"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="63"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="81"/>
       <c r="S9" s="29" t="s">
         <v>24</v>
       </c>
@@ -6946,24 +7049,24 @@
       <c r="AA18" s="29"/>
     </row>
     <row r="19" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
       <c r="S19" s="54"/>
       <c r="T19" s="54"/>
       <c r="U19" s="29"/>
@@ -6972,23 +7075,23 @@
       <c r="AP19" s="24"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
       <c r="P20" s="52"/>
       <c r="Q20" s="52"/>
       <c r="R20" s="52"/>
@@ -6996,22 +7099,22 @@
       <c r="T20" s="29"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
       <c r="O21" s="53"/>
       <c r="P21" s="53"/>
       <c r="Q21" s="53"/>
@@ -7020,22 +7123,22 @@
       <c r="T21" s="29"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
       <c r="O22" s="53"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
@@ -7044,22 +7147,22 @@
       <c r="T22" s="29"/>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
       <c r="O23" s="53"/>
       <c r="P23" s="53"/>
       <c r="Q23" s="53"/>
@@ -7068,23 +7171,23 @@
       <c r="T23" s="29"/>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
       <c r="P24" s="53"/>
       <c r="Q24" s="53"/>
       <c r="R24" s="53"/>
@@ -7104,12 +7207,12 @@
       <c r="J25" s="53"/>
       <c r="K25" s="53"/>
       <c r="L25" s="53"/>
-      <c r="O25" s="61" t="s">
+      <c r="O25" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
       <c r="S25" s="29"/>
       <c r="T25" s="29"/>
     </row>
@@ -7126,12 +7229,12 @@
       <c r="J26" s="53"/>
       <c r="K26" s="53"/>
       <c r="L26" s="53"/>
-      <c r="O26" s="61" t="s">
+      <c r="O26" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
       <c r="S26" s="29"/>
       <c r="T26" s="29"/>
     </row>
@@ -7148,53 +7251,39 @@
       <c r="J27" s="53"/>
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
-      <c r="O27" s="61" t="s">
+      <c r="O27" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
       <c r="S27" s="29"/>
       <c r="T27" s="29"/>
     </row>
     <row r="28" spans="1:42" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C3:R3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:R6"/>
     <mergeCell ref="A28:R28"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C1:R2"/>
@@ -7211,9 +7300,24 @@
     <mergeCell ref="C7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="O7:R7"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:R4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7228,41 +7332,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="6" width="6.1640625" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" customWidth="1"/>
-    <col min="13" max="13" width="6.5" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" customWidth="1"/>
-    <col min="16" max="17" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" customWidth="1"/>
+    <col min="4" max="6" width="6.19921875" customWidth="1"/>
+    <col min="8" max="8" width="5.796875" customWidth="1"/>
+    <col min="9" max="9" width="8.59765625" customWidth="1"/>
+    <col min="12" max="12" width="4.59765625" customWidth="1"/>
+    <col min="13" max="13" width="6.3984375" customWidth="1"/>
+    <col min="14" max="14" width="7.19921875" customWidth="1"/>
+    <col min="15" max="15" width="6.59765625" customWidth="1"/>
+    <col min="16" max="17" width="6.796875" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
     <col min="19" max="19" width="7" customWidth="1"/>
-    <col min="20" max="20" width="6.1640625" customWidth="1"/>
+    <col min="20" max="20" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
       <c r="S1" s="24"/>
       <c r="T1" s="24"/>
       <c r="U1" s="25" t="str">
@@ -7319,24 +7423,24 @@
       </c>
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
       <c r="S2" s="24"/>
       <c r="T2" s="24"/>
       <c r="U2" s="24"/>
@@ -7361,31 +7465,31 @@
       <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:41" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="78" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="80" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
       <c r="V3" s="24"/>
       <c r="W3" s="24"/>
       <c r="X3" s="24"/>
@@ -7410,25 +7514,25 @@
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="82" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="83"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
       <c r="S4" s="28"/>
       <c r="T4" s="29"/>
       <c r="U4" s="24"/>
@@ -7456,25 +7560,25 @@
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="67" t="s">
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="68"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
       <c r="S5" s="30"/>
       <c r="T5" s="31"/>
       <c r="U5" s="32" t="s">
@@ -7508,27 +7612,27 @@
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="67" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="68"/>
-      <c r="O6" s="77" t="s">
+      <c r="N6" s="69"/>
+      <c r="O6" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
       <c r="S6" s="35"/>
       <c r="T6" s="29"/>
       <c r="U6" s="24"/>
@@ -7556,27 +7660,27 @@
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="67" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="68"/>
-      <c r="O7" s="69" t="s">
+      <c r="N7" s="69"/>
+      <c r="O7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
       <c r="S7" s="35"/>
       <c r="T7" s="29"/>
       <c r="U7" s="24" t="s">
@@ -7608,27 +7712,27 @@
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="72" t="s">
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="73"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
       <c r="S8" s="36"/>
       <c r="T8" s="29"/>
       <c r="U8" s="37" t="str">
@@ -7674,22 +7778,22 @@
         <v>23</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="63"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="81"/>
       <c r="S9" s="29" t="s">
         <v>24</v>
       </c>
@@ -8688,57 +8792,51 @@
       </c>
     </row>
     <row r="23" spans="1:41" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
     </row>
     <row r="24" spans="1:41" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="C3:R3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:R4"/>
     <mergeCell ref="C9:R9"/>
     <mergeCell ref="A23:R23"/>
     <mergeCell ref="A24:R24"/>
@@ -8755,6 +8853,12 @@
     <mergeCell ref="O5:R5"/>
     <mergeCell ref="B6:L6"/>
     <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:R4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8772,41 +8876,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="6" width="6.1640625" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" customWidth="1"/>
-    <col min="13" max="13" width="6.5" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" customWidth="1"/>
-    <col min="16" max="17" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" customWidth="1"/>
+    <col min="4" max="6" width="6.19921875" customWidth="1"/>
+    <col min="8" max="8" width="5.796875" customWidth="1"/>
+    <col min="9" max="9" width="8.59765625" customWidth="1"/>
+    <col min="12" max="12" width="4.59765625" customWidth="1"/>
+    <col min="13" max="13" width="6.3984375" customWidth="1"/>
+    <col min="14" max="14" width="7.19921875" customWidth="1"/>
+    <col min="15" max="15" width="6.59765625" customWidth="1"/>
+    <col min="16" max="17" width="6.796875" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
     <col min="19" max="19" width="7" customWidth="1"/>
-    <col min="20" max="20" width="6.1640625" customWidth="1"/>
+    <col min="20" max="20" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
       <c r="S1" s="24"/>
       <c r="T1" s="24"/>
       <c r="U1" s="25" t="str">
@@ -8863,24 +8967,24 @@
       </c>
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
       <c r="S2" s="24"/>
       <c r="T2" s="24"/>
       <c r="U2" s="24"/>
@@ -8905,31 +9009,31 @@
       <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:41" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="78" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="80" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
       <c r="V3" s="24"/>
       <c r="W3" s="24"/>
       <c r="X3" s="24"/>
@@ -8954,25 +9058,25 @@
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="82" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="83"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
       <c r="S4" s="28"/>
       <c r="T4" s="29"/>
       <c r="U4" s="24"/>
@@ -9000,25 +9104,25 @@
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="67" t="s">
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="68"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
       <c r="S5" s="30"/>
       <c r="T5" s="31"/>
       <c r="U5" s="32" t="s">
@@ -9052,27 +9156,27 @@
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="67" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="68"/>
-      <c r="O6" s="77" t="s">
+      <c r="N6" s="69"/>
+      <c r="O6" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
       <c r="S6" s="35"/>
       <c r="T6" s="29"/>
       <c r="U6" s="24"/>
@@ -9100,27 +9204,27 @@
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="67" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="68"/>
-      <c r="O7" s="69" t="s">
+      <c r="N7" s="69"/>
+      <c r="O7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
       <c r="S7" s="35"/>
       <c r="T7" s="29"/>
       <c r="U7" s="24" t="s">
@@ -9152,27 +9256,27 @@
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="72" t="s">
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="73"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
       <c r="S8" s="36"/>
       <c r="T8" s="29"/>
       <c r="U8" s="37" t="str">
@@ -9218,22 +9322,22 @@
         <v>23</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="63"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="81"/>
       <c r="S9" s="29" t="s">
         <v>24</v>
       </c>
@@ -10228,78 +10332,71 @@
       </c>
     </row>
     <row r="23" spans="1:41" s="4" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
     </row>
     <row r="24" spans="1:41" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
     </row>
     <row r="25" spans="1:41" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="85"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="85"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="C3:R3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:R4"/>
     <mergeCell ref="C9:R9"/>
     <mergeCell ref="A23:R23"/>
     <mergeCell ref="A24:R24"/>
@@ -10316,6 +10413,13 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:R5"/>
     <mergeCell ref="B6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:R4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
